--- a/AMS.Web/Temp/uvoz.xlsx
+++ b/AMS.Web/Temp/uvoz.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jankoj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jankoj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{622CD7E2-FAC5-454E-8090-0D59EE88FD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A9572E9-40DB-4E39-A164-234F30F3646B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4245" windowWidth="21600" windowHeight="12735" xr2:uid="{F6D1428E-F41F-4204-9B27-B05AE80CF12E}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F6D1428E-F41F-4204-9B27-B05AE80CF12E}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="491">
   <si>
     <t>ŠIFRA</t>
   </si>
@@ -157,6 +156,9 @@
     <t>BELCA Matjaž</t>
   </si>
   <si>
+    <t>Lenovo TP X1 Carbon G10, torba</t>
+  </si>
+  <si>
     <t>3749</t>
   </si>
   <si>
@@ -227,6 +229,1275 @@
   </si>
   <si>
     <t>CERAR Matija</t>
+  </si>
+  <si>
+    <t>3892</t>
+  </si>
+  <si>
+    <t>3893</t>
+  </si>
+  <si>
+    <t>LENOVO TS P720 Workstation 128/2 Win10 +tipkovnica,miš</t>
+  </si>
+  <si>
+    <t>2585</t>
+  </si>
+  <si>
+    <t>Notesnik Lenovotpt580I7-8550U,Dock-F.Češarek</t>
+  </si>
+  <si>
+    <t>ČEŠAREK France</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>3635</t>
+  </si>
+  <si>
+    <t>Prenosnik ThinkPad T15 G1 i7-10510U + ram DDR 16GB</t>
+  </si>
+  <si>
+    <t>DROBNIČ STERLE Katarina</t>
+  </si>
+  <si>
+    <t>3927</t>
+  </si>
+  <si>
+    <t>LENOVO THINKVISION T27h-20 27''</t>
+  </si>
+  <si>
+    <t>REZERVA</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>4011</t>
+  </si>
+  <si>
+    <t>LENOVO ThinkVision T27h-20 27''</t>
+  </si>
+  <si>
+    <t>PREJ VODOPIVEC NINA</t>
+  </si>
+  <si>
+    <t>3015</t>
+  </si>
+  <si>
+    <t>LENOVO ThinkVision T24i 23,8'' LED IPS FHD PIVOT</t>
+  </si>
+  <si>
+    <t>prej Fijavž Andrej</t>
+  </si>
+  <si>
+    <t>2150</t>
+  </si>
+  <si>
+    <t>NOTESNIK LENOVO THINKPAD T560S I5</t>
+  </si>
+  <si>
+    <t>ELENA HARETSKAYA</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>2198</t>
+  </si>
+  <si>
+    <t>LENOVO THINKVISION X24 Wide 23.8''monitor</t>
+  </si>
+  <si>
+    <t>prej hrastar peter, hrastar albina</t>
+  </si>
+  <si>
+    <t>3971</t>
+  </si>
+  <si>
+    <t>LENOVO THINKPAD P17 G1 FHD i7-10750U +tipkonica +m</t>
+  </si>
+  <si>
+    <t>FIJAVŽ Andrej</t>
+  </si>
+  <si>
+    <t>3973</t>
+  </si>
+  <si>
+    <t>LENOVO THINKVISION P27p</t>
+  </si>
+  <si>
+    <t>3337</t>
+  </si>
+  <si>
+    <t>ThinkPad T590 i7-8565U 16/1TB FHD+ 16GB DDR, dock</t>
+  </si>
+  <si>
+    <t>GABER Uroš</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>LCD MONITOR LENOVO THINK VISION 24</t>
+  </si>
+  <si>
+    <t>GENORIO Armin</t>
+  </si>
+  <si>
+    <t>3646</t>
+  </si>
+  <si>
+    <t>Prenosnik TP T14 G1 i7-10510U + DIMM 32GB DDR4 + Dock</t>
+  </si>
+  <si>
+    <t>3882</t>
+  </si>
+  <si>
+    <t>GERČAR Primož</t>
+  </si>
+  <si>
+    <t>3883</t>
+  </si>
+  <si>
+    <t>3884</t>
+  </si>
+  <si>
+    <t>LENOVO TS P720 Workstation 128/2 Win10 +tipkovnica MIŠ</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>TISKALNIK HP 2035 Natalija Glažar Berčič</t>
+  </si>
+  <si>
+    <t>GLAŽAR Natalija</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>prej PLAHUTA MARKO</t>
+  </si>
+  <si>
+    <t>3758</t>
+  </si>
+  <si>
+    <t>LENOVO THINKVISION T27hv-20 27''</t>
+  </si>
+  <si>
+    <t>4307</t>
+  </si>
+  <si>
+    <t>LENOVO ThinkPad T14s G3 + doc,miš</t>
+  </si>
+  <si>
+    <t>3429</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad T490 i7-8565U 16/512+dock+32gb ddr</t>
+  </si>
+  <si>
+    <t>GOLOB ŠANTIČ Katja</t>
+  </si>
+  <si>
+    <t>2855</t>
+  </si>
+  <si>
+    <t>LENOVOV THINKVISION T24i 23,8'' prej Katja Kramber</t>
+  </si>
+  <si>
+    <t>prej Kramberger</t>
+  </si>
+  <si>
+    <t>1918</t>
+  </si>
+  <si>
+    <t>LASERSKI TISKALNIK HP LJ PRO M401-UPOR.GOLTES M.</t>
+  </si>
+  <si>
+    <t>GOLTES Matjaž</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>2564</t>
+  </si>
+  <si>
+    <t>NotesnikLENOVO TPX1Yoga3 i7 8550U in Dock-M.GOLTES</t>
+  </si>
+  <si>
+    <t>3433</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkVision P27h 27 IPS LED QHD PIVOT upor.</t>
+  </si>
+  <si>
+    <t>2267</t>
+  </si>
+  <si>
+    <t>ThinkPad T570 i7-7600 W10P+dock+torbica+miš, zunanji hdd 1tb</t>
+  </si>
+  <si>
+    <t>HRASTAR Peter</t>
+  </si>
+  <si>
+    <t>2656</t>
+  </si>
+  <si>
+    <t>Lenovo Think Vision t27I 27 LED IPS FHD</t>
+  </si>
+  <si>
+    <t>4156</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkVision T24i 23,8'' - up. Peter Hrastar</t>
+  </si>
+  <si>
+    <t>4070</t>
+  </si>
+  <si>
+    <t>Lenovo TP P15v G1 15 i7-1075H + dock + case + mišB,tipk</t>
+  </si>
+  <si>
+    <t>HRIBAR Blaž</t>
+  </si>
+  <si>
+    <t>4071</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkVision T27h-20 27'' IPS - up.</t>
+  </si>
+  <si>
+    <t>2191</t>
+  </si>
+  <si>
+    <t>LENOVO RT5kVA 3U Rack or Tower UPS - Bizjanova 2</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>2332</t>
+  </si>
+  <si>
+    <t>LENOVO TC M710q i5-7400T-ZA KRMILJENJE STROJ.INS.Ogrevanja</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>2491</t>
+  </si>
+  <si>
+    <t>NOV STREŽNIK LENOVO SYSTEM x3650 M5</t>
+  </si>
+  <si>
+    <t>3357</t>
+  </si>
+  <si>
+    <t>DLINK DGS-1210-24P SWITCH server soba videonadzor</t>
+  </si>
+  <si>
+    <t>4126</t>
+  </si>
+  <si>
+    <t>Cisco Catalyst 3650 48 port PoE 4x10G U Mrežna op.</t>
+  </si>
+  <si>
+    <t>4127</t>
+  </si>
+  <si>
+    <t>4128</t>
+  </si>
+  <si>
+    <t>4129</t>
+  </si>
+  <si>
+    <t>4130</t>
+  </si>
+  <si>
+    <t>4296</t>
+  </si>
+  <si>
+    <t>Synology strežnik NAS RS3621xs – NOVA BACKUP ENOTA</t>
+  </si>
+  <si>
+    <t>k7</t>
+  </si>
+  <si>
+    <t>4303</t>
+  </si>
+  <si>
+    <t>Server LENOVO TS SR650 V2 2x Gold 6326 16C – nov s</t>
+  </si>
+  <si>
+    <t>4415</t>
+  </si>
+  <si>
+    <t>UPS APC 1500 VA Smart – za mrežna stičišča</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>4416</t>
+  </si>
+  <si>
+    <t>K8</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>LCD MONITOR DELL P2414H - upor.IVANC ANDREJ</t>
+  </si>
+  <si>
+    <t>IVANC Andrej</t>
+  </si>
+  <si>
+    <t>N13</t>
+  </si>
+  <si>
+    <t>3895</t>
+  </si>
+  <si>
+    <t>LENOVO THINKPAD X1 Carbon 8 i7-10510U</t>
+  </si>
+  <si>
+    <t>3933</t>
+  </si>
+  <si>
+    <t>Monitor za Lenovo X1 Carbon 8th</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>4412</t>
+  </si>
+  <si>
+    <t>TISKALNIK HP CLJ MFP M479fdw</t>
+  </si>
+  <si>
+    <t>3755</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy TAB T500 A7 10.4 wifi</t>
+  </si>
+  <si>
+    <t>JAKLIČ Urban</t>
+  </si>
+  <si>
+    <t>3926</t>
+  </si>
+  <si>
+    <t>Thinkpad P15s i7-10610U + DIMM 16Gb + dock + mouse</t>
+  </si>
+  <si>
+    <t>4292</t>
+  </si>
+  <si>
+    <t>Monitor LENOVO TV P34w-20 34'' Urban Jaklič</t>
+  </si>
+  <si>
+    <t>3885</t>
+  </si>
+  <si>
+    <t>KLENOVŠEK Matjaž</t>
+  </si>
+  <si>
+    <t>3886</t>
+  </si>
+  <si>
+    <t>3887</t>
+  </si>
+  <si>
+    <t>2821</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkVision T24i23,8 LED IPS FHD PIVOT</t>
+  </si>
+  <si>
+    <t>KOZLOVSKAYA Kristina</t>
+  </si>
+  <si>
+    <t>3056</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad T590 i5-8265U 8/512 FHD W10P + doc</t>
+  </si>
+  <si>
+    <t>2854</t>
+  </si>
+  <si>
+    <t>LENOVO THINKPAD T590 dock torbica,miš,mišWL,tipkovnica</t>
+  </si>
+  <si>
+    <t>KRAMBERGER REHBERGER Katja</t>
+  </si>
+  <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>4248</t>
+  </si>
+  <si>
+    <t>LENOVO THINKVISION T27h-20 27''-Up.Katja Kramberge</t>
+  </si>
+  <si>
+    <t>3679</t>
+  </si>
+  <si>
+    <t>Prenosnik ThinkPad P14s 32GB DDR4 Dock + miš</t>
+  </si>
+  <si>
+    <t>KRAŠOVEC Jože</t>
+  </si>
+  <si>
+    <t>3680</t>
+  </si>
+  <si>
+    <t>Lenovo monitor ThinkVision T24i 23,8''</t>
+  </si>
+  <si>
+    <t>3735</t>
+  </si>
+  <si>
+    <t>3681</t>
+  </si>
+  <si>
+    <t>Lenovo monitor ThinkVision T27h-20  27''</t>
+  </si>
+  <si>
+    <t>KRIŽMAN Damijan</t>
+  </si>
+  <si>
+    <t>3734</t>
+  </si>
+  <si>
+    <t>Prenosnik ThinkPad X1 Carbon 8 i7-10510U 16/1TB +dock,miš</t>
+  </si>
+  <si>
+    <t>1939</t>
+  </si>
+  <si>
+    <t>LENOVO M93p i7-4790 8GB/1TB+SSD+DIMM-upor.KRŽIČ N.</t>
+  </si>
+  <si>
+    <t>KRŽIČ Nataša</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>1940</t>
+  </si>
+  <si>
+    <t>LCD MONITOR DELL U2415 24''+ZVOČNIKI-upor.KRŽIČ N.</t>
+  </si>
+  <si>
+    <t>2290</t>
+  </si>
+  <si>
+    <t>LASERSKI TISKALNIK HP LJ PRO M402dn - ZA NATAŠA KR</t>
+  </si>
+  <si>
+    <t>2487</t>
+  </si>
+  <si>
+    <t>OPTIČNI ČITALEC EPSON WF DS-1630+MREŽNI VMESNIK -</t>
+  </si>
+  <si>
+    <t>2569</t>
+  </si>
+  <si>
+    <t>NoteLenovoIdealPadYoga920i7-8550U16/512FHD N.KRŽIČ</t>
+  </si>
+  <si>
+    <t>2638</t>
+  </si>
+  <si>
+    <t>LENOVO ThinkPad T580+dock - K.Kumelj</t>
+  </si>
+  <si>
+    <t>KUMELJ Katarina</t>
+  </si>
+  <si>
+    <t>N20</t>
+  </si>
+  <si>
+    <t>3012</t>
+  </si>
+  <si>
+    <t>PREJ KUZELE GAŠPER</t>
+  </si>
+  <si>
+    <t>2608</t>
+  </si>
+  <si>
+    <t>LENOVO ThinkVision t24i - G.Kuzele</t>
+  </si>
+  <si>
+    <t>KUZELE Gašper</t>
+  </si>
+  <si>
+    <t>Lenovo TP T14S 1TB SSD, dock</t>
+  </si>
+  <si>
+    <t>4076</t>
+  </si>
+  <si>
+    <t>Lenovo TP P15s i7-1061OU dock,case,mišB,tipk</t>
+  </si>
+  <si>
+    <t>LAMPRET Klavdija</t>
+  </si>
+  <si>
+    <t>4077</t>
+  </si>
+  <si>
+    <t>2628</t>
+  </si>
+  <si>
+    <t>LENOVO ThinkVision T24m - U.Lavrenčič</t>
+  </si>
+  <si>
+    <t>LAVRENČIČ Uroš</t>
+  </si>
+  <si>
+    <t>2856</t>
+  </si>
+  <si>
+    <t>LENOVO TPAD YOGA 4  miš, torbica</t>
+  </si>
+  <si>
+    <t>2165</t>
+  </si>
+  <si>
+    <t>APPLE IPAD AIR 2 64GB</t>
+  </si>
+  <si>
+    <t>LOVŠIN Polona</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>3013</t>
+  </si>
+  <si>
+    <t>LENOVO ThinkVision T24i 23,8'' LED IPS FHD PIVOT doma</t>
+  </si>
+  <si>
+    <t>4400</t>
+  </si>
+  <si>
+    <t>Prenosnik LENOVO TP T15 G2 dock</t>
+  </si>
+  <si>
+    <t>3622</t>
+  </si>
+  <si>
+    <t>Prenosnik ThinkPAd x1 Carbon 8i7-10510U 16/512 FHD</t>
+  </si>
+  <si>
+    <t>LOVŠIN Tomaž</t>
+  </si>
+  <si>
+    <t>3623</t>
+  </si>
+  <si>
+    <t>Lenovo monitor Think Vision T24i 23,8" LED IPS FHD</t>
+  </si>
+  <si>
+    <t>4033</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad T15 G1 i7-10510U 16/1TB +miš,tipko</t>
+  </si>
+  <si>
+    <t>LUŠIN Miha</t>
+  </si>
+  <si>
+    <t>4034</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkVision T27h-20 27''</t>
+  </si>
+  <si>
+    <t>4259</t>
+  </si>
+  <si>
+    <t>LENOVO THINKVISION T27h-20 27''-Upor.Miha Lušin</t>
+  </si>
+  <si>
+    <t>2262</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad X1 Carbon i5-7200U W10P - M.Marc</t>
+  </si>
+  <si>
+    <t>MARC Matevž</t>
+  </si>
+  <si>
+    <t>2625</t>
+  </si>
+  <si>
+    <t>LENOVO ThinkPad X1 Yoga+dock+tipk+mišAcrobat DC AutoCAD</t>
+  </si>
+  <si>
+    <t>MARKOVIČ Jernej</t>
+  </si>
+  <si>
+    <t>2626</t>
+  </si>
+  <si>
+    <t>LENOVO ThinkVision T24m - J.Markovič</t>
+  </si>
+  <si>
+    <t>2241</t>
+  </si>
+  <si>
+    <t>LENOVO THINKPAD T570 i5-7200U+tipk.,miš,dock,torbica</t>
+  </si>
+  <si>
+    <t>MILOŠEVIČ Irena</t>
+  </si>
+  <si>
+    <t>3490</t>
+  </si>
+  <si>
+    <t>HP LaserJet Pro M404dn Printer-za Irena Miloševič</t>
+  </si>
+  <si>
+    <t>4172</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkVision T27h-20 27''-up.Irena Miloševič</t>
+  </si>
+  <si>
+    <t>4250</t>
+  </si>
+  <si>
+    <t>MOZGAN Aleš</t>
+  </si>
+  <si>
+    <t>1334</t>
+  </si>
+  <si>
+    <t>LCD Monitor DELL 23''U2312HM - Mozgan Aleš</t>
+  </si>
+  <si>
+    <t>prej Mojca Wlodyga</t>
+  </si>
+  <si>
+    <t>2158</t>
+  </si>
+  <si>
+    <t>LCD MONITOR LG24M38D-GRAD.MUTA</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>PRENOSNI RAČUNALNIK LENOVO THINKPAD T560 i7-6500-</t>
+  </si>
+  <si>
+    <t>3739</t>
+  </si>
+  <si>
+    <t>LENOVO THINKPAD T15P G1-i7-10750H +case +mouse</t>
+  </si>
+  <si>
+    <t>Markota Miro</t>
+  </si>
+  <si>
+    <t>4324</t>
+  </si>
+  <si>
+    <t>2835</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad T590i7,PAD USB,TIPKOVNICA, MIŠ</t>
+  </si>
+  <si>
+    <t>MUHVIČ Mladen</t>
+  </si>
+  <si>
+    <t>N8</t>
+  </si>
+  <si>
+    <t>4323</t>
+  </si>
+  <si>
+    <t>4109</t>
+  </si>
+  <si>
+    <t>LENOVO TP P15v +dimm32GB+ssd2TB+dock+miš+case+tipk</t>
+  </si>
+  <si>
+    <t>N17 projektanti za teren</t>
+  </si>
+  <si>
+    <t>Prej Anica Pavlovič</t>
+  </si>
+  <si>
+    <t>4260</t>
+  </si>
+  <si>
+    <t>LENOVO THINKVISION T27h-20 27''-Upor.Marjan Naglič</t>
+  </si>
+  <si>
+    <t>NAGLIČ Marjan</t>
+  </si>
+  <si>
+    <t>4261</t>
+  </si>
+  <si>
+    <t>LENOVO TP X1 C G9 i7-1165G7-Upor.Marjan Naglič</t>
+  </si>
+  <si>
+    <t>1847</t>
+  </si>
+  <si>
+    <t>LCD MONITOR LENOVO THINKVISION - NAPREYENKA V. 24 INCH</t>
+  </si>
+  <si>
+    <t>NAPREYENKA Vitali</t>
+  </si>
+  <si>
+    <t>3952</t>
+  </si>
+  <si>
+    <t>Lenovo TP X1 Extreme 15 i7-16/512 W10P</t>
+  </si>
+  <si>
+    <t>3977</t>
+  </si>
+  <si>
+    <t>2640</t>
+  </si>
+  <si>
+    <t>LENOVO ThinkVision T24i - K.Grozina</t>
+  </si>
+  <si>
+    <t>OSTRVICA Jasmina</t>
+  </si>
+  <si>
+    <t>prej K. grozina</t>
+  </si>
+  <si>
+    <t>3472</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad T14s G1 i7-10510U 16/1tbfhd +dock</t>
+  </si>
+  <si>
+    <t>Lenovo TP P16, tipk, miš, dock</t>
+  </si>
+  <si>
+    <t>PEJIČ Igor</t>
+  </si>
+  <si>
+    <t>Monitor Lenovo T27p</t>
+  </si>
+  <si>
+    <t>3160</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad X1  Carbon7 DOCK+torbica</t>
+  </si>
+  <si>
+    <t>PIBER Urška</t>
+  </si>
+  <si>
+    <t>3161</t>
+  </si>
+  <si>
+    <t>2852</t>
+  </si>
+  <si>
+    <t>POHAR Miha</t>
+  </si>
+  <si>
+    <t>2853</t>
+  </si>
+  <si>
+    <t>LENOVOV THINKVISION T24i 23,8'' LED IPS FHD PIVOT</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>LENOVO THINKVISION x24 Wide 23.8'' LED monitor</t>
+  </si>
+  <si>
+    <t>POSTOLOVA Ivana</t>
+  </si>
+  <si>
+    <t>prej hanna</t>
+  </si>
+  <si>
+    <t>2263</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad T470s i5-7200U W10P+dock+case</t>
+  </si>
+  <si>
+    <t>2815</t>
+  </si>
+  <si>
+    <t>LenovoThinkPad T590i7-856U16/512 FHD g W10P</t>
+  </si>
+  <si>
+    <t>PRAZNIK Mitja</t>
+  </si>
+  <si>
+    <t>Prej Vitalij B.</t>
+  </si>
+  <si>
+    <t>2816</t>
+  </si>
+  <si>
+    <t>Monitor lenovo 24,miš, tipkovnica</t>
+  </si>
+  <si>
+    <t>3045</t>
+  </si>
+  <si>
+    <t>4078</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkVision T27h-20 27'' IPS - up. Biljana</t>
+  </si>
+  <si>
+    <t>PRINČIČ Biljana</t>
+  </si>
+  <si>
+    <t>4367</t>
+  </si>
+  <si>
+    <t>1824</t>
+  </si>
+  <si>
+    <t>NOTESNIK LENOVO THINKPAD T540P I5-4200M-za rezervo</t>
+  </si>
+  <si>
+    <t>K7</t>
+  </si>
+  <si>
+    <t>prej od VERK GREGA do27.10.17)</t>
+  </si>
+  <si>
+    <t>4231</t>
+  </si>
+  <si>
+    <t>LENOVO THINKVISION T27h-20 27''-Upo. Zala Razinger</t>
+  </si>
+  <si>
+    <t>RAZINGER Zala Andrina</t>
+  </si>
+  <si>
+    <t>4291</t>
+  </si>
+  <si>
+    <t>LENOVO TP P15v G2 15 i7-11800H 16GB WIN10P + DOCK</t>
+  </si>
+  <si>
+    <t>1747</t>
+  </si>
+  <si>
+    <t>LENOVO THINKCENTRE E92 i5-3330 4GB- REVAKOVA ELENA</t>
+  </si>
+  <si>
+    <t>REVAKOVA Elena</t>
+  </si>
+  <si>
+    <t>2826</t>
+  </si>
+  <si>
+    <t>LenovoThinkPad T590i7-8565U 16/512FHD g W10P</t>
+  </si>
+  <si>
+    <t>2832</t>
+  </si>
+  <si>
+    <t>Lenovo Think Vision T24i 23,8LED IPSFHD PIVOT</t>
+  </si>
+  <si>
+    <t>2592</t>
+  </si>
+  <si>
+    <t>LCDMonitorLenovoThinkVisionT24i238LedlPS</t>
+  </si>
+  <si>
+    <t>prej A. hrastar</t>
+  </si>
+  <si>
+    <t>2639</t>
+  </si>
+  <si>
+    <t>LENOVO ThinkPad T580+dock+torb - K.Grozina</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>DELL MONITOR P2715Q 27''LED Wide - up.Rojc Matjaž</t>
+  </si>
+  <si>
+    <t>ROJC Matjaž</t>
+  </si>
+  <si>
+    <t>prej Jenko Matjaž</t>
+  </si>
+  <si>
+    <t>2857</t>
+  </si>
+  <si>
+    <t>LENOVO THINKPAD T590 i7-8565U 16/512 FHD W10P,dock</t>
+  </si>
+  <si>
+    <t>4281</t>
+  </si>
+  <si>
+    <t>LENOVO TP X1 CARBON G9 i7-1165G7 14 WIN10P</t>
+  </si>
+  <si>
+    <t>RUPNIK Tanja</t>
+  </si>
+  <si>
+    <t>4396</t>
+  </si>
+  <si>
+    <t>Prenosnik lenovo thinkpad t16 rutar ines</t>
+  </si>
+  <si>
+    <t>RUTAR Ines</t>
+  </si>
+  <si>
+    <t>Monitor lenovo t27hw-20  rutar ines</t>
+  </si>
+  <si>
+    <t>Monitor lenovo t 27h-2l  rutar ines</t>
+  </si>
+  <si>
+    <t>3648</t>
+  </si>
+  <si>
+    <t>Prenosnik Lenovo X1 Extreme 32GB DDR,dock,miš,tipk,blum</t>
+  </si>
+  <si>
+    <t>RUTAR POLANEC Valentina</t>
+  </si>
+  <si>
+    <t>3649</t>
+  </si>
+  <si>
+    <t>Lenovo monitor ThinkVision P27 h 27''</t>
+  </si>
+  <si>
+    <t>3974</t>
+  </si>
+  <si>
+    <t>2657</t>
+  </si>
+  <si>
+    <t>Barvna večnamenska naprava RICOH IMC4500A</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>2874</t>
+  </si>
+  <si>
+    <t>HP DESIGNJET 4500 PLOTER - za projektante</t>
+  </si>
+  <si>
+    <t>k8</t>
+  </si>
+  <si>
+    <t>4275</t>
+  </si>
+  <si>
+    <t>PLOTER HP DESIGNJET T1600 PRINTER 36''</t>
+  </si>
+  <si>
+    <t>N7</t>
+  </si>
+  <si>
+    <t>2462</t>
+  </si>
+  <si>
+    <t>LENOVO TP L-570 i7-7500Uz dock-za ALENA PILETSKAYA</t>
+  </si>
+  <si>
+    <t>SELIGER (PILETSKAYA) Alena</t>
+  </si>
+  <si>
+    <t>2285</t>
+  </si>
+  <si>
+    <t>LENOVO THINKVISION T24i 23,8'' LED - ZA ESMIR SELI</t>
+  </si>
+  <si>
+    <t>SELIMOVIĆ Esmir</t>
+  </si>
+  <si>
+    <t>4402</t>
+  </si>
+  <si>
+    <t>2253</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkVision T24i 23,8'' LED IPS -S. Hanna</t>
+  </si>
+  <si>
+    <t>SHINKEVICH Hanna</t>
+  </si>
+  <si>
+    <t>prej M. Bahor</t>
+  </si>
+  <si>
+    <t>3975</t>
+  </si>
+  <si>
+    <t>LENOVO ThinkPad T14s G1 i7-10510U +dock</t>
+  </si>
+  <si>
+    <t>2806</t>
+  </si>
+  <si>
+    <t>Lenovo TP T580i7-8550U 16/512 FHD W10P</t>
+  </si>
+  <si>
+    <t>SKRINJAR Luka</t>
+  </si>
+  <si>
+    <t>2808</t>
+  </si>
+  <si>
+    <t>Lenovo Think Vision P27 IPS LED QHD PIVOT</t>
+  </si>
+  <si>
+    <t>2809</t>
+  </si>
+  <si>
+    <t>Lenovo,miš,tipkovnica</t>
+  </si>
+  <si>
+    <t>4175</t>
+  </si>
+  <si>
+    <t>LENOVO TP P15s i7-10610U+dock+tipkovn.+2Xmiš+case</t>
+  </si>
+  <si>
+    <t>SLAVIČEK Mateja</t>
+  </si>
+  <si>
+    <t>4176</t>
+  </si>
+  <si>
+    <t>LENOVO ThinkVision T27h-20 27''up. Mateja Slaviček</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>LCD MONITOR LENOVO THINKVISION LT24-UPOR.STROJAN L</t>
+  </si>
+  <si>
+    <t>STROJAN Lana</t>
+  </si>
+  <si>
+    <t>3353</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad T590 i7-8565U 16/1TB+ dock</t>
+  </si>
+  <si>
+    <t>3159</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad X1 Yoga4 dock</t>
+  </si>
+  <si>
+    <t>ŠEME Maruša</t>
+  </si>
+  <si>
+    <t>4171</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkVision T27h-20 27'' - up. Maruša Šeme</t>
+  </si>
+  <si>
+    <t>3127</t>
+  </si>
+  <si>
+    <t>MS Surface Book 2- 13,5 /i7/8GB/256GBSSD/W10P</t>
+  </si>
+  <si>
+    <t>Hrastar Peter</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>3682</t>
+  </si>
+  <si>
+    <t>Apple 12.9-inch iPad Pro (4th) Cellular 512GB +</t>
+  </si>
+  <si>
+    <t>ŠKRABEC Janez</t>
+  </si>
+  <si>
+    <t>4290</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 pro max 512GB – up. Janez ŠKRABEC</t>
+  </si>
+  <si>
+    <t>LCD MONITOR LENOVO THINKVISION LT24-UPOR.ŠKRABEC S</t>
+  </si>
+  <si>
+    <t>ŠKRABEC Staš</t>
+  </si>
+  <si>
+    <t>2616</t>
+  </si>
+  <si>
+    <t>LENOVO ThinkVision T24m - S.Škrabec</t>
+  </si>
+  <si>
+    <t>3158</t>
+  </si>
+  <si>
+    <t>ThinkPad X1 Yoga4 i7-8565U W10P DOCK Staš Škrabec</t>
+  </si>
+  <si>
+    <t>4110</t>
+  </si>
+  <si>
+    <t>LENOVO THINKVISION T27q-20 27inch</t>
+  </si>
+  <si>
+    <t>Špringler Primož , študent</t>
+  </si>
+  <si>
+    <t>4111</t>
+  </si>
+  <si>
+    <t>4326</t>
+  </si>
+  <si>
+    <t>ŠTAMOL Ivan</t>
+  </si>
+  <si>
+    <t>4327</t>
+  </si>
+  <si>
+    <t>4398</t>
+  </si>
+  <si>
+    <t>Prenosnik LENOVO TP T15 G2dock, 16gb</t>
+  </si>
+  <si>
+    <t>3970</t>
+  </si>
+  <si>
+    <t>ŠTEBEJ Miha</t>
+  </si>
+  <si>
+    <t>3972</t>
+  </si>
+  <si>
+    <t>4069</t>
+  </si>
+  <si>
+    <t>iPod touch (6th Gen), silver – za poslušanje glasb</t>
+  </si>
+  <si>
+    <t>tajništvo</t>
+  </si>
+  <si>
+    <t>1942</t>
+  </si>
+  <si>
+    <t>NOTESNIK LENOVO TP X1 CARBON i7-5500U, dock</t>
+  </si>
+  <si>
+    <t>TRDAN Leopold</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>2587</t>
+  </si>
+  <si>
+    <t>LCD MonitorLenovoThinkVisiont24m23,8-L.TRDAN</t>
+  </si>
+  <si>
+    <t>3945</t>
+  </si>
+  <si>
+    <t>TRDAN Matija</t>
+  </si>
+  <si>
+    <t>Lennovo TP 15v gG3, dock</t>
+  </si>
+  <si>
+    <t>monitor Lenovo p34 w-20 trdan matija</t>
+  </si>
+  <si>
+    <t>4173</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkVision T27h-20 27'' - up. Grega Verk</t>
+  </si>
+  <si>
+    <t>VERK Grega</t>
+  </si>
+  <si>
+    <t>4309</t>
+  </si>
+  <si>
+    <t>LENOVO TP P15v G2 15 i7-11800H 16/512 W11P + dock</t>
+  </si>
+  <si>
+    <t>3446</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPadT590 i7-8565U 16/1 TB FHD W10P+miš+</t>
+  </si>
+  <si>
+    <t>VODOPIVEC Nina</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>LCD MONITOR DELL P2714H - upor.ŽIST SAŠO</t>
+  </si>
+  <si>
+    <t>ŽIST Sašo</t>
+  </si>
+  <si>
+    <t>2614</t>
+  </si>
+  <si>
+    <t>LENOVO ThinkPad T580 i7-8550U+dock-S.Žist</t>
   </si>
 </sst>
 </file>
@@ -306,8 +1577,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Dobro" xfId="1" builtinId="26"/>
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -323,9 +1594,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pisarna">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -363,7 +1634,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pisarna">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -469,7 +1740,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pisarna">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -619,10 +1890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7101A4EF-2390-4CBD-A34B-6FC809C1DDD3}">
-  <dimension ref="A1:F197"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:F198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,55 +2127,53 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>13</v>
@@ -916,48 +2185,50 @@
         <v>52</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
@@ -965,17 +2236,15 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
         <v>10</v>
       </c>
@@ -983,1376 +2252,3181 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="A38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="A40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="A41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="A42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="A43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="A44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="A45" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="A46" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="A47" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="A48" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="A49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="A50" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
+      <c r="A51" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="4"/>
+      <c r="A52" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
+      <c r="A53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="4"/>
+      <c r="A54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="C55" s="3"/>
+      <c r="A55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="4"/>
-      <c r="C56" s="3"/>
+      <c r="A56" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
-      <c r="C57" s="3"/>
+      <c r="A57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="4"/>
-      <c r="C58" s="3"/>
+      <c r="A58" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
-      <c r="C59" s="3"/>
+      <c r="A59" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="4"/>
+      <c r="A60" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="4"/>
+      <c r="A61" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" t="s">
+        <v>155</v>
+      </c>
+      <c r="F61" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="4"/>
+      <c r="A62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="4"/>
+      <c r="A63" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" t="s">
+        <v>151</v>
+      </c>
+      <c r="F63" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+      <c r="A64" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" t="s">
+        <v>151</v>
+      </c>
+      <c r="F64" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="A65" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="A66" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="A67" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="A68" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="A69" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="A71" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="A72" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="A73" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="A74" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
+      <c r="A75" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="A76" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="A77" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="A78" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="A79" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="A80" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="A81" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="A82" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="A84" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="A85" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="A86" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
+      <c r="A87" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+      <c r="A88" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
+      <c r="A89" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
+      <c r="A90" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+      <c r="A91" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="B92" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
+      <c r="A93" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="A94" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+      <c r="A95" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="A96" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
+      <c r="A97" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+      <c r="A98" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="A99" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+      <c r="A100" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
+      <c r="A101" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
+      <c r="A102" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
+      <c r="A103" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
+      <c r="A104" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
+      <c r="A105" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
+      <c r="A106" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
+      <c r="A107" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
+      <c r="A108" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
+      <c r="A109" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
+      <c r="A110" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
+      <c r="A111" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
+      <c r="E111" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
+      <c r="A112" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
+      <c r="E112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
+      <c r="A113" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
+      <c r="A114" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
+      <c r="E114" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="A115" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
+      <c r="E115" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
+      <c r="A116" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
+      <c r="A117" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
+      <c r="A118" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
+      <c r="A119" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
+      <c r="A120" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
+      <c r="A121" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
+      <c r="A122" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
+      <c r="A123" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
+      <c r="A124" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
+      <c r="A125" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
+      <c r="A126" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
+      <c r="B127" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
+      <c r="B128" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F128" s="2"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
+      <c r="A129" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
+      <c r="A130" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F130" s="2"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
+      <c r="A131" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
+      <c r="A132" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
+      <c r="A133" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
+      <c r="A134" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
+      <c r="A135" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
+      <c r="A136" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
+      <c r="A137" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F137" s="2"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
+      <c r="A138" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
+      <c r="A139" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F139" s="2"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
+      <c r="A140" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
+      <c r="A141" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F141" s="2"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
+      <c r="A142" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F142" s="2"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
+      <c r="A143" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
+      <c r="A144" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F144" s="2"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
+      <c r="A145" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
+      <c r="A146" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
+      <c r="A147" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F147" s="2"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
+      <c r="A148" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
+      <c r="A149" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F149" s="2"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
+      <c r="A150" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
+      <c r="A151" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
+      <c r="B152" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
+      <c r="B153" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
+      <c r="B154" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
+      <c r="A155" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
+      <c r="A156" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
+      <c r="A157" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
+      <c r="A158" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
+      <c r="A159" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
+      <c r="A160" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
+      <c r="A161" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
+      <c r="E161" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
+      <c r="A162" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
+      <c r="A163" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
+      <c r="A164" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
+      <c r="A165" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
+      <c r="A166" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
+      <c r="A167" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
+      <c r="A168" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
+      <c r="A169" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
+      <c r="A170" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
+      <c r="A171" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
+      <c r="A172" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
+      <c r="A173" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
+      <c r="A174" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
+      <c r="A175" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
+      <c r="A176" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
+      <c r="A177" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
+      <c r="A178" s="2">
+        <v>1916</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
+      <c r="A179" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
+      <c r="A180" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
+      <c r="A181" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
+      <c r="A182" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
+      <c r="A183" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
+      <c r="A184" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
+      <c r="A185" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
+      <c r="A186" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
+      <c r="A187" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
+      <c r="A188" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
+      <c r="A189" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
+      <c r="A190" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
+      <c r="A191" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
+      <c r="B192" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
+      <c r="B193" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
+      <c r="A194" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
+      <c r="A195" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
+      <c r="A196" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>485</v>
+      </c>
       <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
+      <c r="E196" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
+      <c r="A197" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F197" s="2"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F198" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
